--- a/arquivo_original.xlsx
+++ b/arquivo_original.xlsx
@@ -134,14 +134,14 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -155,8 +155,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -169,50 +169,50 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
@@ -225,50 +225,50 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="A8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
@@ -281,50 +281,50 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="A12" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="A13" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
+      <c r="A14" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
@@ -337,50 +337,50 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="A16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
+      <c r="A18" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
@@ -393,50 +393,50 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="A20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="A21" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
+      <c r="A22" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
@@ -449,50 +449,50 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="A23" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="A25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
+      <c r="A26" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1</v>
@@ -505,58 +505,58 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="A27" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="A28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="A29" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="A30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>5</v>
       </c>
     </row>
